--- a/ResonancePrison.xlsx
+++ b/ResonancePrison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\ResonancePrison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327A172-3CD5-4EE8-B713-B0D497D89217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA7863-EC6C-4C6C-A806-CDFC56BE8F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{21A65FD0-A9AE-4DF6-ADBB-99F76469325F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="4" xr2:uid="{21A65FD0-A9AE-4DF6-ADBB-99F76469325F}"/>
   </bookViews>
   <sheets>
     <sheet name="生产车间" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="81">
   <si>
     <t>产物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,138 @@
   </si>
   <si>
     <t>纯棉布料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾丝花边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缝纫包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾丝连衣裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛布料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯芯绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯芯绒休闲裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纺布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涤纶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涤纶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳纶纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗污染防护服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纺布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缝纫包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉布料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻奢女装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉T恤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花枕头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼龙晴雨伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊绒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88412447-3338-4FBA-A91D-35CBA6C0CF0F}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1373,875 @@
         <v>3</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" t="s">
+        <v>66</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB951C50-9FF2-435C-A38E-58A6254B3B95}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1425,6 +2426,74 @@
       </c>
       <c r="E10">
         <v>1802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+      <c r="E13">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -1435,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C1A850-7ABA-4294-BD5A-81B2725F79E3}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1529,6 +2598,28 @@
       </c>
       <c r="C8">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1539,13 +2630,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907917C2-5517-4AFF-BAAA-AEAC4AE6B403}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1677,6 +2771,182 @@
       </c>
       <c r="C12">
         <v>152361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>137700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>185895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>104247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>115425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>226800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>161676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>80838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>66825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>109350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>24381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>40581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>40419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>72900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>52731</v>
       </c>
     </row>
   </sheetData>
@@ -1689,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45170B9E-CEC2-4C8A-822A-590D99937605}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1708,7 +2978,7 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ResonancePrison.xlsx
+++ b/ResonancePrison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\ResonancePrison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA7863-EC6C-4C6C-A806-CDFC56BE8F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B706BBD-5992-4C90-87FE-E92E35195A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="4" xr2:uid="{21A65FD0-A9AE-4DF6-ADBB-99F76469325F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{21A65FD0-A9AE-4DF6-ADBB-99F76469325F}"/>
   </bookViews>
   <sheets>
     <sheet name="生产车间" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="91">
   <si>
     <t>产物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,46 @@
   </si>
   <si>
     <t>羊绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊绒衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅绒椅披</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级女装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇航服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +454,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,7 +470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -746,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88412447-3338-4FBA-A91D-35CBA6C0CF0F}">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2242,6 +2282,391 @@
         <v>2</v>
       </c>
     </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>82</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>82</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>82</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>82</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>85</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>85</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>85</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>86</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>89</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>89</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>90</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>90</v>
+      </c>
+      <c r="B167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>90</v>
+      </c>
+      <c r="B168" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB951C50-9FF2-435C-A38E-58A6254B3B95}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2494,6 +2919,23 @@
       </c>
       <c r="E14">
         <v>990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
+      </c>
+      <c r="E15">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2949,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2550,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2613,10 +3055,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2630,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907917C2-5517-4AFF-BAAA-AEAC4AE6B403}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2949,6 +3391,61 @@
         <v>52731</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>184437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>240570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>272565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>282933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>400950</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2957,10 +3454,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45170B9E-CEC2-4C8A-822A-590D99937605}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2981,6 +3478,30 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
